--- a/csvReaderJson/assets/postalP2.xlsx
+++ b/csvReaderJson/assets/postalP2.xlsx
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11039" uniqueCount="2788">
   <si>
-    <t xml:space="preserve">Tracking Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conocimiento Aereo</t>
+    <t xml:space="preserve">TrackingNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConocimientoAereo</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Bag Label</t>
+    <t xml:space="preserve">BagLabel</t>
   </si>
   <si>
     <t xml:space="preserve">Origin</t>
@@ -46,31 +46,31 @@
     <t xml:space="preserve">Partida</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Account Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shipper Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship Add 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship Add 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship Add 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship Contry Code</t>
+    <t xml:space="preserve">InternalAccountNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipperName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipAdd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipAdd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipAdd 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipZip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipContryCode</t>
   </si>
   <si>
     <t xml:space="preserve">NIF</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Zip</t>
   </si>
   <si>
-    <t xml:space="preserve">Country Code</t>
+    <t xml:space="preserve">CountryCode</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
@@ -109,13 +109,13 @@
     <t xml:space="preserve">Pieces</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight UOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Value</t>
+    <t xml:space="preserve">TotalWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeightUOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalValue</t>
   </si>
   <si>
     <t xml:space="preserve">Currency</t>
@@ -127,16 +127,16 @@
     <t xml:space="preserve">Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Item Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item HS Code</t>
+    <t xml:space="preserve">ItemDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemHSCode</t>
   </si>
   <si>
     <t xml:space="preserve">Item Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Item Value</t>
+    <t xml:space="preserve">ItemValue</t>
   </si>
   <si>
     <t xml:space="preserve">PQ48K20475808800124010Z</t>
@@ -8528,8 +8528,8 @@
   </sheetPr>
   <dimension ref="A1:AM501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG26" activeCellId="0" sqref="AG26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO10" activeCellId="0" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/csvReaderJson/assets/postalP2.xlsx
+++ b/csvReaderJson/assets/postalP2.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ShipAdd2</t>
   </si>
   <si>
-    <t xml:space="preserve">ShipAdd 3</t>
+    <t xml:space="preserve">ShipAdd3</t>
   </si>
   <si>
     <t xml:space="preserve">ShipCity</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">ItemHSCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Item Quantity</t>
+    <t xml:space="preserve">ItemQuantity</t>
   </si>
   <si>
     <t xml:space="preserve">ItemValue</t>
@@ -8528,8 +8528,8 @@
   </sheetPr>
   <dimension ref="A1:AM501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO10" activeCellId="0" sqref="AO10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
